--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="450">
   <si>
     <t>ID</t>
   </si>
@@ -767,9 +767,6 @@
     <t>5. Нажать кнопку Фильтровать</t>
   </si>
   <si>
-    <t>5. Возврат на вкладку News/Новости, появлется картинка бабочки с кнопкой "Обновить" и текстом "Здесь пока ничего нет..." Нажатие кнопки Обновить возвращает к общему списку Новостей.</t>
-  </si>
-  <si>
     <t>NC-3</t>
   </si>
   <si>
@@ -1226,9 +1223,6 @@
     <t>"О приложении"</t>
   </si>
   <si>
-    <t>АС-1</t>
-  </si>
-  <si>
     <t>Корректность отображения всех элементов экрана About / О приложении</t>
   </si>
   <si>
@@ -1265,9 +1259,6 @@
     <t>6. Информация о разработчике и год в нижней части экрана</t>
   </si>
   <si>
-    <t>АС-2</t>
-  </si>
-  <si>
     <t>Просмотр ссылки "Политика конфиденциальности" во вкладке "О приложении" (позитивный)</t>
   </si>
   <si>
@@ -1284,9 +1275,6 @@
   </si>
   <si>
     <t>3. Отобразилась политика конфиденциальности</t>
-  </si>
-  <si>
-    <t>АС-3</t>
   </si>
   <si>
     <t>Просмотр ссылки "Пользовательское соглашение" во вкладке "О приложении" (позитивный)</t>
@@ -1407,6 +1395,21 @@
       </rPr>
       <t>https://drive.google.com/drive/u/0/folders/14Sl8CAiIzFqtyXx6BAmWVlbu3_cXXzH1</t>
     </r>
+  </si>
+  <si>
+    <t>АP-1</t>
+  </si>
+  <si>
+    <t>АP-2</t>
+  </si>
+  <si>
+    <t>АP-3</t>
+  </si>
+  <si>
+    <t>АP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Возврат на вкладку News/Новости, появлется картинка бабочки с кнопкой "Обновить" и текстом "Здесь пока ничего нет..." </t>
   </si>
 </sst>
 </file>
@@ -1878,17 +1881,20 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1899,9 +1905,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2217,9 +2220,9 @@
   </sheetPr>
   <dimension ref="A1:X568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10:I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169:J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2282,7 +2285,7 @@
       <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="61"/>
@@ -2350,7 +2353,7 @@
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
       <c r="F4" s="56" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>15</v>
@@ -2434,7 +2437,7 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="72" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="61"/>
@@ -4261,7 +4264,7 @@
       <c r="G64" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="77"/>
+      <c r="H64" s="78"/>
       <c r="I64" s="59"/>
       <c r="J64" s="59"/>
       <c r="K64" s="10"/>
@@ -4316,7 +4319,7 @@
       <c r="D66" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="79" t="s">
+      <c r="E66" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -4444,7 +4447,7 @@
       <c r="D70" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="79" t="s">
+      <c r="E70" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F70" s="16" t="s">
@@ -4545,7 +4548,7 @@
       <c r="E73" s="83"/>
       <c r="F73" s="83"/>
       <c r="G73" s="83"/>
-      <c r="H73" s="77"/>
+      <c r="H73" s="78"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="10"/>
@@ -4636,7 +4639,7 @@
       <c r="B76" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="75"/>
+      <c r="C76" s="74"/>
       <c r="D76" s="66" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="G76" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H76" s="75"/>
+      <c r="H76" s="74"/>
       <c r="I76" s="57" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +4855,7 @@
       <c r="B83" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="75"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="66" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4868,7 @@
       <c r="G83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H83" s="75" t="s">
+      <c r="H83" s="74" t="s">
         <v>141</v>
       </c>
       <c r="I83" s="57" t="s">
@@ -5104,7 +5107,7 @@
       <c r="X90" s="10"/>
     </row>
     <row r="91" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="72" t="s">
         <v>152</v>
       </c>
       <c r="B91" s="61"/>
@@ -5199,23 +5202,23 @@
       <c r="A94" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="76" t="s">
+      <c r="B94" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="75"/>
+      <c r="C94" s="74"/>
       <c r="D94" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="75" t="s">
+      <c r="E94" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="F94" s="74" t="s">
+      <c r="F94" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="G94" s="74" t="s">
+      <c r="G94" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="H94" s="75"/>
+      <c r="H94" s="74"/>
       <c r="I94" s="57" t="s">
         <v>26</v>
       </c>
@@ -5263,7 +5266,7 @@
     </row>
     <row r="96" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="59"/>
-      <c r="B96" s="77"/>
+      <c r="B96" s="78"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
@@ -5321,14 +5324,14 @@
       <c r="A98" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="75"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="75" t="s">
+      <c r="E98" s="74" t="s">
         <v>129</v>
       </c>
       <c r="F98" s="42" t="s">
@@ -5337,7 +5340,7 @@
       <c r="G98" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="H98" s="78"/>
+      <c r="H98" s="79"/>
       <c r="I98" s="57" t="s">
         <v>26</v>
       </c>
@@ -5389,7 +5392,7 @@
     </row>
     <row r="100" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="59"/>
-      <c r="B100" s="77"/>
+      <c r="B100" s="78"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
@@ -5447,14 +5450,14 @@
       <c r="A102" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="75"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="75" t="s">
+      <c r="E102" s="74" t="s">
         <v>129</v>
       </c>
       <c r="F102" s="42" t="s">
@@ -5463,7 +5466,7 @@
       <c r="G102" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="H102" s="78"/>
+      <c r="H102" s="79"/>
       <c r="I102" s="57" t="s">
         <v>26</v>
       </c>
@@ -5514,7 +5517,7 @@
       <c r="X103" s="10"/>
     </row>
     <row r="104" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="80" t="s">
+      <c r="A104" s="72" t="s">
         <v>176</v>
       </c>
       <c r="B104" s="61"/>
@@ -5674,7 +5677,7 @@
       <c r="B109" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="75"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="66" t="s">
         <v>12</v>
       </c>
@@ -5687,9 +5690,9 @@
       <c r="G109" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="H109" s="73"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="73"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -5871,9 +5874,9 @@
       <c r="G115" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H115" s="73"/>
-      <c r="I115" s="73"/>
-      <c r="J115" s="73"/>
+      <c r="H115" s="75"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
       <c r="M115" s="10"/>
@@ -6055,9 +6058,9 @@
       <c r="G121" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H121" s="73"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="73"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
       <c r="M121" s="10"/>
@@ -6239,9 +6242,9 @@
       <c r="G127" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
+      <c r="H127" s="75"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="75"/>
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
@@ -6423,9 +6426,9 @@
       <c r="G133" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H133" s="73"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
@@ -6607,9 +6610,9 @@
       <c r="G139" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H139" s="73"/>
-      <c r="I139" s="73"/>
-      <c r="J139" s="73"/>
+      <c r="H139" s="75"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="75"/>
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
@@ -6791,9 +6794,9 @@
       <c r="G145" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H145" s="73"/>
-      <c r="I145" s="73"/>
-      <c r="J145" s="73"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
@@ -6975,9 +6978,9 @@
       <c r="G151" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H151" s="73"/>
-      <c r="I151" s="73"/>
-      <c r="J151" s="73"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="75"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -7330,7 +7333,7 @@
       <c r="B163" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C163" s="75"/>
+      <c r="C163" s="74"/>
       <c r="D163" s="66" t="s">
         <v>12</v>
       </c>
@@ -7343,9 +7346,9 @@
       <c r="G163" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
+      <c r="H163" s="75"/>
+      <c r="I163" s="75"/>
+      <c r="J163" s="75"/>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
       <c r="M163" s="10"/>
@@ -7531,7 +7534,7 @@
         <v>234</v>
       </c>
       <c r="I169" s="57" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J169" s="57"/>
       <c r="K169" s="10"/>
@@ -7639,7 +7642,7 @@
       <c r="W172" s="10"/>
       <c r="X172" s="10"/>
     </row>
-    <row r="173" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A173" s="59"/>
       <c r="B173" s="59"/>
       <c r="C173" s="59"/>
@@ -7649,7 +7652,7 @@
         <v>241</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
       <c r="H173" s="59"/>
       <c r="I173" s="59"/>
@@ -7697,10 +7700,10 @@
     </row>
     <row r="175" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B175" s="70" t="s">
         <v>243</v>
-      </c>
-      <c r="B175" s="70" t="s">
-        <v>244</v>
       </c>
       <c r="C175" s="65"/>
       <c r="D175" s="66" t="s">
@@ -7802,10 +7805,10 @@
       <c r="D178" s="59"/>
       <c r="E178" s="59"/>
       <c r="F178" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G178" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="G178" s="24" t="s">
-        <v>246</v>
       </c>
       <c r="H178" s="59"/>
       <c r="I178" s="59"/>
@@ -7826,8 +7829,8 @@
       <c r="X178" s="10"/>
     </row>
     <row r="179" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="80" t="s">
-        <v>247</v>
+      <c r="A179" s="72" t="s">
+        <v>246</v>
       </c>
       <c r="B179" s="61"/>
       <c r="C179" s="61"/>
@@ -7855,16 +7858,16 @@
     </row>
     <row r="180" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B180" s="70" t="s">
         <v>248</v>
-      </c>
-      <c r="B180" s="70" t="s">
-        <v>249</v>
       </c>
       <c r="C180" s="65"/>
       <c r="D180" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E180" s="72" t="s">
+      <c r="E180" s="73" t="s">
         <v>40</v>
       </c>
       <c r="F180" s="17" t="s">
@@ -7900,10 +7903,10 @@
       <c r="D181" s="59"/>
       <c r="E181" s="68"/>
       <c r="F181" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G181" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G181" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H181" s="59"/>
       <c r="I181" s="59"/>
@@ -7951,16 +7954,16 @@
     </row>
     <row r="183" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A183" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B183" s="70" t="s">
         <v>252</v>
-      </c>
-      <c r="B183" s="70" t="s">
-        <v>253</v>
       </c>
       <c r="C183" s="65"/>
       <c r="D183" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E183" s="72" t="s">
+      <c r="E183" s="73" t="s">
         <v>40</v>
       </c>
       <c r="F183" s="17" t="s">
@@ -7996,10 +7999,10 @@
       <c r="D184" s="58"/>
       <c r="E184" s="68"/>
       <c r="F184" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G184" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G184" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H184" s="58"/>
       <c r="I184" s="58"/>
@@ -8026,10 +8029,10 @@
       <c r="D185" s="58"/>
       <c r="E185" s="68"/>
       <c r="F185" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G185" s="43" t="s">
         <v>254</v>
-      </c>
-      <c r="G185" s="43" t="s">
-        <v>255</v>
       </c>
       <c r="H185" s="58"/>
       <c r="I185" s="58"/>
@@ -8056,10 +8059,10 @@
       <c r="D186" s="59"/>
       <c r="E186" s="68"/>
       <c r="F186" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="G186" s="19" t="s">
         <v>256</v>
-      </c>
-      <c r="G186" s="19" t="s">
-        <v>257</v>
       </c>
       <c r="H186" s="59"/>
       <c r="I186" s="59"/>
@@ -8107,16 +8110,16 @@
     </row>
     <row r="188" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A188" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B188" s="64" t="s">
         <v>258</v>
-      </c>
-      <c r="B188" s="64" t="s">
-        <v>259</v>
       </c>
       <c r="C188" s="65"/>
       <c r="D188" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E188" s="72" t="s">
+      <c r="E188" s="73" t="s">
         <v>40</v>
       </c>
       <c r="F188" s="17" t="s">
@@ -8152,10 +8155,10 @@
       <c r="D189" s="58"/>
       <c r="E189" s="68"/>
       <c r="F189" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G189" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G189" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H189" s="58"/>
       <c r="I189" s="58"/>
@@ -8182,10 +8185,10 @@
       <c r="D190" s="58"/>
       <c r="E190" s="68"/>
       <c r="F190" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G190" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="G190" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="H190" s="58"/>
       <c r="I190" s="58"/>
@@ -8212,10 +8215,10 @@
       <c r="D191" s="58"/>
       <c r="E191" s="68"/>
       <c r="F191" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G191" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="G191" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="H191" s="58"/>
       <c r="I191" s="58"/>
@@ -8242,10 +8245,10 @@
       <c r="D192" s="58"/>
       <c r="E192" s="68"/>
       <c r="F192" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G192" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="G192" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="H192" s="58"/>
       <c r="I192" s="58"/>
@@ -8272,10 +8275,10 @@
       <c r="D193" s="58"/>
       <c r="E193" s="68"/>
       <c r="F193" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G193" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="G193" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="H193" s="58"/>
       <c r="I193" s="58"/>
@@ -8302,10 +8305,10 @@
       <c r="D194" s="59"/>
       <c r="E194" s="68"/>
       <c r="F194" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G194" s="50" t="s">
         <v>268</v>
-      </c>
-      <c r="G194" s="50" t="s">
-        <v>269</v>
       </c>
       <c r="H194" s="59"/>
       <c r="I194" s="59"/>
@@ -8353,10 +8356,10 @@
     </row>
     <row r="196" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A196" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="B196" s="70" t="s">
         <v>270</v>
-      </c>
-      <c r="B196" s="70" t="s">
-        <v>271</v>
       </c>
       <c r="C196" s="65"/>
       <c r="D196" s="66" t="s">
@@ -8398,10 +8401,10 @@
       <c r="D197" s="58"/>
       <c r="E197" s="58"/>
       <c r="F197" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G197" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G197" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H197" s="58"/>
       <c r="I197" s="58"/>
@@ -8428,10 +8431,10 @@
       <c r="D198" s="58"/>
       <c r="E198" s="58"/>
       <c r="F198" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G198" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="G198" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="H198" s="58"/>
       <c r="I198" s="58"/>
@@ -8458,10 +8461,10 @@
       <c r="D199" s="58"/>
       <c r="E199" s="58"/>
       <c r="F199" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H199" s="58"/>
       <c r="I199" s="58"/>
@@ -8491,7 +8494,7 @@
         <v>241</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H200" s="58"/>
       <c r="I200" s="58"/>
@@ -8518,10 +8521,10 @@
       <c r="D201" s="58"/>
       <c r="E201" s="58"/>
       <c r="F201" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H201" s="58"/>
       <c r="I201" s="58"/>
@@ -8548,10 +8551,10 @@
       <c r="D202" s="58"/>
       <c r="E202" s="58"/>
       <c r="F202" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G202" s="50" t="s">
         <v>268</v>
-      </c>
-      <c r="G202" s="50" t="s">
-        <v>269</v>
       </c>
       <c r="H202" s="58"/>
       <c r="I202" s="58"/>
@@ -8578,10 +8581,10 @@
       <c r="D203" s="58"/>
       <c r="E203" s="58"/>
       <c r="F203" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G203" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="G203" s="16" t="s">
-        <v>276</v>
       </c>
       <c r="H203" s="58"/>
       <c r="I203" s="58"/>
@@ -8608,10 +8611,10 @@
       <c r="D204" s="59"/>
       <c r="E204" s="59"/>
       <c r="F204" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G204" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="G204" s="16" t="s">
-        <v>278</v>
       </c>
       <c r="H204" s="59"/>
       <c r="I204" s="59"/>
@@ -8659,10 +8662,10 @@
     </row>
     <row r="206" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A206" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B206" s="70" t="s">
         <v>279</v>
-      </c>
-      <c r="B206" s="70" t="s">
-        <v>280</v>
       </c>
       <c r="C206" s="65"/>
       <c r="D206" s="66" t="s">
@@ -8672,7 +8675,7 @@
         <v>129</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>180</v>
@@ -8704,10 +8707,10 @@
       <c r="D207" s="58"/>
       <c r="E207" s="58"/>
       <c r="F207" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G207" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G207" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H207" s="58"/>
       <c r="I207" s="58"/>
@@ -8734,10 +8737,10 @@
       <c r="D208" s="58"/>
       <c r="E208" s="58"/>
       <c r="F208" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G208" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="G208" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="H208" s="58"/>
       <c r="I208" s="58"/>
@@ -8764,10 +8767,10 @@
       <c r="D209" s="59"/>
       <c r="E209" s="59"/>
       <c r="F209" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G209" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="G209" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="H209" s="59"/>
       <c r="I209" s="59"/>
@@ -8815,12 +8818,12 @@
     </row>
     <row r="211" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A211" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B211" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="B211" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="C211" s="75"/>
+      <c r="C211" s="74"/>
       <c r="D211" s="66" t="s">
         <v>12</v>
       </c>
@@ -8828,13 +8831,13 @@
         <v>129</v>
       </c>
       <c r="F211" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H211" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I211" s="57" t="s">
         <v>74</v>
@@ -8862,10 +8865,10 @@
       <c r="D212" s="58"/>
       <c r="E212" s="58"/>
       <c r="F212" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G212" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G212" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H212" s="58"/>
       <c r="I212" s="58"/>
@@ -8892,10 +8895,10 @@
       <c r="D213" s="58"/>
       <c r="E213" s="58"/>
       <c r="F213" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G213" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="G213" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="H213" s="58"/>
       <c r="I213" s="58"/>
@@ -8922,10 +8925,10 @@
       <c r="D214" s="58"/>
       <c r="E214" s="58"/>
       <c r="F214" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G214" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="G214" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="H214" s="58"/>
       <c r="I214" s="58"/>
@@ -8952,10 +8955,10 @@
       <c r="D215" s="58"/>
       <c r="E215" s="58"/>
       <c r="F215" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G215" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="G215" s="16" t="s">
-        <v>292</v>
       </c>
       <c r="H215" s="58"/>
       <c r="I215" s="58"/>
@@ -8982,10 +8985,10 @@
       <c r="D216" s="58"/>
       <c r="E216" s="58"/>
       <c r="F216" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G216" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="G216" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="H216" s="58"/>
       <c r="I216" s="58"/>
@@ -9012,10 +9015,10 @@
       <c r="D217" s="58"/>
       <c r="E217" s="58"/>
       <c r="F217" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G217" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="G217" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="H217" s="58"/>
       <c r="I217" s="58"/>
@@ -9042,10 +9045,10 @@
       <c r="D218" s="58"/>
       <c r="E218" s="58"/>
       <c r="F218" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G218" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="G218" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="H218" s="58"/>
       <c r="I218" s="58"/>
@@ -9072,10 +9075,10 @@
       <c r="D219" s="58"/>
       <c r="E219" s="58"/>
       <c r="F219" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G219" s="16" t="s">
         <v>299</v>
-      </c>
-      <c r="G219" s="16" t="s">
-        <v>300</v>
       </c>
       <c r="H219" s="58"/>
       <c r="I219" s="58"/>
@@ -9102,10 +9105,10 @@
       <c r="D220" s="59"/>
       <c r="E220" s="59"/>
       <c r="F220" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G220" s="16" t="s">
         <v>301</v>
-      </c>
-      <c r="G220" s="16" t="s">
-        <v>302</v>
       </c>
       <c r="H220" s="59"/>
       <c r="I220" s="59"/>
@@ -9153,10 +9156,10 @@
     </row>
     <row r="222" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A222" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B222" s="64" t="s">
         <v>303</v>
-      </c>
-      <c r="B222" s="64" t="s">
-        <v>304</v>
       </c>
       <c r="C222" s="65"/>
       <c r="D222" s="66" t="s">
@@ -9166,13 +9169,13 @@
         <v>129</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H222" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I222" s="57" t="s">
         <v>74</v>
@@ -9200,10 +9203,10 @@
       <c r="D223" s="58"/>
       <c r="E223" s="58"/>
       <c r="F223" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G223" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G223" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H223" s="58"/>
       <c r="I223" s="58"/>
@@ -9230,10 +9233,10 @@
       <c r="D224" s="58"/>
       <c r="E224" s="58"/>
       <c r="F224" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G224" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H224" s="58"/>
       <c r="I224" s="58"/>
@@ -9260,10 +9263,10 @@
       <c r="D225" s="58"/>
       <c r="E225" s="58"/>
       <c r="F225" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G225" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H225" s="58"/>
       <c r="I225" s="58"/>
@@ -9290,10 +9293,10 @@
       <c r="D226" s="58"/>
       <c r="E226" s="58"/>
       <c r="F226" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G226" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="G226" s="16" t="s">
-        <v>309</v>
       </c>
       <c r="H226" s="58"/>
       <c r="I226" s="58"/>
@@ -9320,10 +9323,10 @@
       <c r="D227" s="58"/>
       <c r="E227" s="58"/>
       <c r="F227" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G227" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H227" s="58"/>
       <c r="I227" s="58"/>
@@ -9350,10 +9353,10 @@
       <c r="D228" s="58"/>
       <c r="E228" s="58"/>
       <c r="F228" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G228" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H228" s="58"/>
       <c r="I228" s="58"/>
@@ -9380,10 +9383,10 @@
       <c r="D229" s="58"/>
       <c r="E229" s="58"/>
       <c r="F229" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G229" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H229" s="58"/>
       <c r="I229" s="58"/>
@@ -9410,10 +9413,10 @@
       <c r="D230" s="59"/>
       <c r="E230" s="59"/>
       <c r="F230" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H230" s="59"/>
       <c r="I230" s="59"/>
@@ -9461,13 +9464,13 @@
     </row>
     <row r="232" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A232" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B232" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B232" s="70" t="s">
+      <c r="C232" s="65" t="s">
         <v>315</v>
-      </c>
-      <c r="C232" s="65" t="s">
-        <v>316</v>
       </c>
       <c r="D232" s="66" t="s">
         <v>12</v>
@@ -9476,7 +9479,7 @@
         <v>129</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>180</v>
@@ -9508,10 +9511,10 @@
       <c r="D233" s="58"/>
       <c r="E233" s="58"/>
       <c r="F233" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G233" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G233" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H233" s="58"/>
       <c r="I233" s="58"/>
@@ -9538,10 +9541,10 @@
       <c r="D234" s="58"/>
       <c r="E234" s="58"/>
       <c r="F234" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G234" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H234" s="58"/>
       <c r="I234" s="58"/>
@@ -9568,10 +9571,10 @@
       <c r="D235" s="59"/>
       <c r="E235" s="59"/>
       <c r="F235" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G235" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="G235" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="H235" s="59"/>
       <c r="I235" s="59"/>
@@ -9619,13 +9622,13 @@
     </row>
     <row r="237" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A237" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="B237" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="B237" s="70" t="s">
-        <v>320</v>
-      </c>
       <c r="C237" s="65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D237" s="66" t="s">
         <v>12</v>
@@ -9634,7 +9637,7 @@
         <v>129</v>
       </c>
       <c r="F237" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G237" s="16" t="s">
         <v>180</v>
@@ -9666,10 +9669,10 @@
       <c r="D238" s="58"/>
       <c r="E238" s="58"/>
       <c r="F238" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G238" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G238" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H238" s="58"/>
       <c r="I238" s="58"/>
@@ -9696,10 +9699,10 @@
       <c r="D239" s="58"/>
       <c r="E239" s="58"/>
       <c r="F239" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H239" s="58"/>
       <c r="I239" s="58"/>
@@ -9726,10 +9729,10 @@
       <c r="D240" s="58"/>
       <c r="E240" s="58"/>
       <c r="F240" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G240" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="G240" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="H240" s="58"/>
       <c r="I240" s="58"/>
@@ -9756,10 +9759,10 @@
       <c r="D241" s="59"/>
       <c r="E241" s="59"/>
       <c r="F241" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="G241" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="G241" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="H241" s="59"/>
       <c r="I241" s="59"/>
@@ -9807,10 +9810,10 @@
     </row>
     <row r="243" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A243" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="B243" s="70" t="s">
         <v>325</v>
-      </c>
-      <c r="B243" s="70" t="s">
-        <v>326</v>
       </c>
       <c r="C243" s="65"/>
       <c r="D243" s="66" t="s">
@@ -9852,10 +9855,10 @@
       <c r="D244" s="58"/>
       <c r="E244" s="58"/>
       <c r="F244" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G244" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G244" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H244" s="58"/>
       <c r="I244" s="58"/>
@@ -9882,10 +9885,10 @@
       <c r="D245" s="58"/>
       <c r="E245" s="58"/>
       <c r="F245" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H245" s="58"/>
       <c r="I245" s="58"/>
@@ -9912,10 +9915,10 @@
       <c r="D246" s="58"/>
       <c r="E246" s="58"/>
       <c r="F246" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G246" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H246" s="58"/>
       <c r="I246" s="58"/>
@@ -9942,10 +9945,10 @@
       <c r="D247" s="59"/>
       <c r="E247" s="59"/>
       <c r="F247" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G247" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="G247" s="16" t="s">
-        <v>329</v>
       </c>
       <c r="H247" s="59"/>
       <c r="I247" s="59"/>
@@ -9993,26 +9996,26 @@
     </row>
     <row r="249" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A249" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="B249" s="64" t="s">
         <v>330</v>
-      </c>
-      <c r="B249" s="64" t="s">
-        <v>331</v>
       </c>
       <c r="C249" s="65"/>
       <c r="D249" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E249" s="65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F249" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I249" s="57" t="s">
         <v>26</v>
@@ -10040,10 +10043,10 @@
       <c r="D250" s="58"/>
       <c r="E250" s="58"/>
       <c r="F250" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G250" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G250" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H250" s="58"/>
       <c r="I250" s="58"/>
@@ -10070,10 +10073,10 @@
       <c r="D251" s="58"/>
       <c r="E251" s="58"/>
       <c r="F251" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G251" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H251" s="58"/>
       <c r="I251" s="58"/>
@@ -10100,10 +10103,10 @@
       <c r="D252" s="58"/>
       <c r="E252" s="58"/>
       <c r="F252" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G252" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H252" s="58"/>
       <c r="I252" s="58"/>
@@ -10130,10 +10133,10 @@
       <c r="D253" s="58"/>
       <c r="E253" s="58"/>
       <c r="F253" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H253" s="58"/>
       <c r="I253" s="58"/>
@@ -10160,10 +10163,10 @@
       <c r="D254" s="58"/>
       <c r="E254" s="58"/>
       <c r="F254" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H254" s="58"/>
       <c r="I254" s="58"/>
@@ -10190,10 +10193,10 @@
       <c r="D255" s="58"/>
       <c r="E255" s="58"/>
       <c r="F255" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H255" s="58"/>
       <c r="I255" s="58"/>
@@ -10220,10 +10223,10 @@
       <c r="D256" s="58"/>
       <c r="E256" s="58"/>
       <c r="F256" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G256" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H256" s="58"/>
       <c r="I256" s="58"/>
@@ -10250,10 +10253,10 @@
       <c r="D257" s="58"/>
       <c r="E257" s="58"/>
       <c r="F257" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G257" s="16" t="s">
         <v>340</v>
-      </c>
-      <c r="G257" s="16" t="s">
-        <v>341</v>
       </c>
       <c r="H257" s="58"/>
       <c r="I257" s="58"/>
@@ -10280,10 +10283,10 @@
       <c r="D258" s="58"/>
       <c r="E258" s="58"/>
       <c r="F258" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G258" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="G258" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="H258" s="58"/>
       <c r="I258" s="58"/>
@@ -10310,10 +10313,10 @@
       <c r="D259" s="58"/>
       <c r="E259" s="58"/>
       <c r="F259" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G259" s="16" t="s">
         <v>344</v>
-      </c>
-      <c r="G259" s="16" t="s">
-        <v>345</v>
       </c>
       <c r="H259" s="58"/>
       <c r="I259" s="58"/>
@@ -10340,10 +10343,10 @@
       <c r="D260" s="58"/>
       <c r="E260" s="58"/>
       <c r="F260" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G260" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="G260" s="16" t="s">
-        <v>347</v>
       </c>
       <c r="H260" s="58"/>
       <c r="I260" s="58"/>
@@ -10370,10 +10373,10 @@
       <c r="D261" s="58"/>
       <c r="E261" s="58"/>
       <c r="F261" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G261" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="G261" s="16" t="s">
-        <v>349</v>
       </c>
       <c r="H261" s="58"/>
       <c r="I261" s="58"/>
@@ -10400,10 +10403,10 @@
       <c r="D262" s="58"/>
       <c r="E262" s="58"/>
       <c r="F262" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G262" s="16" t="s">
         <v>350</v>
-      </c>
-      <c r="G262" s="16" t="s">
-        <v>351</v>
       </c>
       <c r="H262" s="58"/>
       <c r="I262" s="58"/>
@@ -10430,10 +10433,10 @@
       <c r="D263" s="59"/>
       <c r="E263" s="59"/>
       <c r="F263" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G263" s="16" t="s">
         <v>352</v>
-      </c>
-      <c r="G263" s="16" t="s">
-        <v>353</v>
       </c>
       <c r="H263" s="59"/>
       <c r="I263" s="59"/>
@@ -10481,10 +10484,10 @@
     </row>
     <row r="265" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A265" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B265" s="64" t="s">
         <v>354</v>
-      </c>
-      <c r="B265" s="64" t="s">
-        <v>355</v>
       </c>
       <c r="C265" s="65"/>
       <c r="D265" s="66" t="s">
@@ -10494,13 +10497,13 @@
         <v>129</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G265" s="16" t="s">
         <v>180</v>
       </c>
       <c r="H265" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I265" s="57" t="s">
         <v>26</v>
@@ -10528,10 +10531,10 @@
       <c r="D266" s="58"/>
       <c r="E266" s="58"/>
       <c r="F266" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G266" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G266" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H266" s="58"/>
       <c r="I266" s="58"/>
@@ -10558,10 +10561,10 @@
       <c r="D267" s="58"/>
       <c r="E267" s="58"/>
       <c r="F267" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G267" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H267" s="58"/>
       <c r="I267" s="58"/>
@@ -10588,10 +10591,10 @@
       <c r="D268" s="58"/>
       <c r="E268" s="58"/>
       <c r="F268" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G268" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="G268" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="H268" s="58"/>
       <c r="I268" s="58"/>
@@ -10618,10 +10621,10 @@
       <c r="D269" s="58"/>
       <c r="E269" s="58"/>
       <c r="F269" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G269" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="G269" s="16" t="s">
-        <v>359</v>
       </c>
       <c r="H269" s="58"/>
       <c r="I269" s="58"/>
@@ -10648,10 +10651,10 @@
       <c r="D270" s="58"/>
       <c r="E270" s="58"/>
       <c r="F270" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G270" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H270" s="58"/>
       <c r="I270" s="58"/>
@@ -10678,10 +10681,10 @@
       <c r="D271" s="58"/>
       <c r="E271" s="58"/>
       <c r="F271" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G271" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H271" s="58"/>
       <c r="I271" s="58"/>
@@ -10708,10 +10711,10 @@
       <c r="D272" s="58"/>
       <c r="E272" s="58"/>
       <c r="F272" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G272" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H272" s="58"/>
       <c r="I272" s="58"/>
@@ -10738,10 +10741,10 @@
       <c r="D273" s="58"/>
       <c r="E273" s="58"/>
       <c r="F273" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H273" s="58"/>
       <c r="I273" s="58"/>
@@ -10768,10 +10771,10 @@
       <c r="D274" s="58"/>
       <c r="E274" s="58"/>
       <c r="F274" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G274" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="G274" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="H274" s="58"/>
       <c r="I274" s="58"/>
@@ -10798,10 +10801,10 @@
       <c r="D275" s="58"/>
       <c r="E275" s="58"/>
       <c r="F275" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G275" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="G275" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="H275" s="58"/>
       <c r="I275" s="58"/>
@@ -10828,10 +10831,10 @@
       <c r="D276" s="58"/>
       <c r="E276" s="58"/>
       <c r="F276" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G276" s="16" t="s">
         <v>366</v>
-      </c>
-      <c r="G276" s="16" t="s">
-        <v>367</v>
       </c>
       <c r="H276" s="58"/>
       <c r="I276" s="58"/>
@@ -10858,10 +10861,10 @@
       <c r="D277" s="58"/>
       <c r="E277" s="58"/>
       <c r="F277" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G277" s="16" t="s">
         <v>368</v>
-      </c>
-      <c r="G277" s="16" t="s">
-        <v>369</v>
       </c>
       <c r="H277" s="58"/>
       <c r="I277" s="58"/>
@@ -10888,10 +10891,10 @@
       <c r="D278" s="58"/>
       <c r="E278" s="58"/>
       <c r="F278" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="G278" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="G278" s="16" t="s">
-        <v>371</v>
       </c>
       <c r="H278" s="58"/>
       <c r="I278" s="58"/>
@@ -10918,10 +10921,10 @@
       <c r="D279" s="59"/>
       <c r="E279" s="59"/>
       <c r="F279" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G279" s="16" t="s">
         <v>372</v>
-      </c>
-      <c r="G279" s="16" t="s">
-        <v>373</v>
       </c>
       <c r="H279" s="59"/>
       <c r="I279" s="59"/>
@@ -10969,10 +10972,10 @@
     </row>
     <row r="281" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A281" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B281" s="64" t="s">
         <v>374</v>
-      </c>
-      <c r="B281" s="64" t="s">
-        <v>375</v>
       </c>
       <c r="C281" s="65"/>
       <c r="D281" s="66" t="s">
@@ -10982,7 +10985,7 @@
         <v>129</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G281" s="16" t="s">
         <v>180</v>
@@ -11014,10 +11017,10 @@
       <c r="D282" s="58"/>
       <c r="E282" s="58"/>
       <c r="F282" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G282" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G282" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H282" s="58"/>
       <c r="I282" s="58"/>
@@ -11044,10 +11047,10 @@
       <c r="D283" s="58"/>
       <c r="E283" s="58"/>
       <c r="F283" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G283" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="G283" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="H283" s="58"/>
       <c r="I283" s="58"/>
@@ -11074,10 +11077,10 @@
       <c r="D284" s="58"/>
       <c r="E284" s="58"/>
       <c r="F284" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G284" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="G284" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="H284" s="58"/>
       <c r="I284" s="58"/>
@@ -11104,10 +11107,10 @@
       <c r="D285" s="59"/>
       <c r="E285" s="59"/>
       <c r="F285" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="G285" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="G285" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="H285" s="59"/>
       <c r="I285" s="59"/>
@@ -11155,20 +11158,20 @@
     </row>
     <row r="287" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A287" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B287" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="B287" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="C287" s="75"/>
+      <c r="C287" s="74"/>
       <c r="D287" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E287" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G287" s="16" t="s">
         <v>180</v>
@@ -11200,10 +11203,10 @@
       <c r="D288" s="58"/>
       <c r="E288" s="58"/>
       <c r="F288" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G288" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="G288" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="H288" s="58"/>
       <c r="I288" s="58"/>
@@ -11230,10 +11233,10 @@
       <c r="D289" s="58"/>
       <c r="E289" s="58"/>
       <c r="F289" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G289" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="G289" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="H289" s="58"/>
       <c r="I289" s="58"/>
@@ -11260,10 +11263,10 @@
       <c r="D290" s="58"/>
       <c r="E290" s="58"/>
       <c r="F290" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G290" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="G290" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="H290" s="58"/>
       <c r="I290" s="58"/>
@@ -11290,10 +11293,10 @@
       <c r="D291" s="59"/>
       <c r="E291" s="59"/>
       <c r="F291" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G291" s="16" t="s">
         <v>379</v>
-      </c>
-      <c r="G291" s="16" t="s">
-        <v>380</v>
       </c>
       <c r="H291" s="59"/>
       <c r="I291" s="59"/>
@@ -11314,8 +11317,8 @@
       <c r="X291" s="10"/>
     </row>
     <row r="292" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="80" t="s">
-        <v>381</v>
+      <c r="A292" s="72" t="s">
+        <v>380</v>
       </c>
       <c r="B292" s="61"/>
       <c r="C292" s="61"/>
@@ -11343,10 +11346,10 @@
     </row>
     <row r="293" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B293" s="23" t="s">
         <v>382</v>
-      </c>
-      <c r="B293" s="23" t="s">
-        <v>383</v>
       </c>
       <c r="C293" s="17"/>
       <c r="D293" s="18" t="s">
@@ -11356,10 +11359,10 @@
         <v>129</v>
       </c>
       <c r="F293" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G293" s="16" t="s">
         <v>384</v>
-      </c>
-      <c r="G293" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="H293" s="18"/>
       <c r="I293" s="22" t="s">
@@ -11409,10 +11412,10 @@
     </row>
     <row r="295" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A295" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="B295" s="64" t="s">
         <v>386</v>
-      </c>
-      <c r="B295" s="64" t="s">
-        <v>387</v>
       </c>
       <c r="C295" s="65"/>
       <c r="D295" s="66" t="s">
@@ -11422,10 +11425,10 @@
         <v>129</v>
       </c>
       <c r="F295" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G295" s="16" t="s">
         <v>384</v>
-      </c>
-      <c r="G295" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="H295" s="66"/>
       <c r="I295" s="57" t="s">
@@ -11454,10 +11457,10 @@
       <c r="D296" s="58"/>
       <c r="E296" s="58"/>
       <c r="F296" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G296" s="23" t="s">
         <v>388</v>
-      </c>
-      <c r="G296" s="23" t="s">
-        <v>389</v>
       </c>
       <c r="H296" s="58"/>
       <c r="I296" s="58"/>
@@ -11484,10 +11487,10 @@
       <c r="D297" s="59"/>
       <c r="E297" s="59"/>
       <c r="F297" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G297" s="23" t="s">
         <v>390</v>
-      </c>
-      <c r="G297" s="23" t="s">
-        <v>391</v>
       </c>
       <c r="H297" s="59"/>
       <c r="I297" s="59"/>
@@ -11508,8 +11511,8 @@
       <c r="X297" s="10"/>
     </row>
     <row r="298" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="80" t="s">
-        <v>392</v>
+      <c r="A298" s="72" t="s">
+        <v>391</v>
       </c>
       <c r="B298" s="61"/>
       <c r="C298" s="61"/>
@@ -11537,10 +11540,10 @@
     </row>
     <row r="299" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A299" s="63" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="B299" s="64" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C299" s="65"/>
       <c r="D299" s="66" t="s">
@@ -11550,7 +11553,7 @@
         <v>129</v>
       </c>
       <c r="F299" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G299" s="16" t="s">
         <v>126</v>
@@ -11582,10 +11585,10 @@
       <c r="D300" s="58"/>
       <c r="E300" s="58"/>
       <c r="F300" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G300" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H300" s="18"/>
       <c r="I300" s="58"/>
@@ -11612,10 +11615,10 @@
       <c r="D301" s="58"/>
       <c r="E301" s="58"/>
       <c r="F301" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G301" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H301" s="18"/>
       <c r="I301" s="58"/>
@@ -11642,10 +11645,10 @@
       <c r="D302" s="58"/>
       <c r="E302" s="58"/>
       <c r="F302" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G302" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H302" s="18"/>
       <c r="I302" s="58"/>
@@ -11672,10 +11675,10 @@
       <c r="D303" s="58"/>
       <c r="E303" s="58"/>
       <c r="F303" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G303" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H303" s="18"/>
       <c r="I303" s="58"/>
@@ -11702,10 +11705,10 @@
       <c r="D304" s="59"/>
       <c r="E304" s="58"/>
       <c r="F304" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G304" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H304" s="18"/>
       <c r="I304" s="59"/>
@@ -11753,10 +11756,10 @@
     </row>
     <row r="306" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A306" s="63" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="B306" s="64" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C306" s="65"/>
       <c r="D306" s="66" t="s">
@@ -11766,13 +11769,13 @@
         <v>129</v>
       </c>
       <c r="F306" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G306" s="16" t="s">
         <v>126</v>
       </c>
       <c r="H306" s="66" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I306" s="57" t="s">
         <v>74</v>
@@ -11800,10 +11803,10 @@
       <c r="D307" s="58"/>
       <c r="E307" s="58"/>
       <c r="F307" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G307" s="23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H307" s="58"/>
       <c r="I307" s="58"/>
@@ -11830,10 +11833,10 @@
       <c r="D308" s="59"/>
       <c r="E308" s="59"/>
       <c r="F308" s="23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G308" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H308" s="59"/>
       <c r="I308" s="59"/>
@@ -11881,10 +11884,10 @@
     </row>
     <row r="310" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A310" s="63" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="B310" s="64" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C310" s="65"/>
       <c r="D310" s="66" t="s">
@@ -11894,13 +11897,13 @@
         <v>129</v>
       </c>
       <c r="F310" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G310" s="16" t="s">
         <v>126</v>
       </c>
       <c r="H310" s="66" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I310" s="57" t="s">
         <v>74</v>
@@ -11928,10 +11931,10 @@
       <c r="D311" s="58"/>
       <c r="E311" s="58"/>
       <c r="F311" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G311" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H311" s="58"/>
       <c r="I311" s="58"/>
@@ -11958,10 +11961,10 @@
       <c r="D312" s="59"/>
       <c r="E312" s="59"/>
       <c r="F312" s="23" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G312" s="23" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H312" s="59"/>
       <c r="I312" s="59"/>
@@ -11983,7 +11986,7 @@
     </row>
     <row r="313" spans="1:24" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="67" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B313" s="68"/>
       <c r="C313" s="68"/>
@@ -12012,7 +12015,7 @@
     <row r="314" spans="1:24" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="63"/>
       <c r="B314" s="70" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C314" s="65"/>
       <c r="D314" s="66" t="s">
@@ -12022,10 +12025,10 @@
         <v>129</v>
       </c>
       <c r="F314" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G314" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H314" s="65"/>
       <c r="I314" s="65"/>
@@ -12052,10 +12055,10 @@
       <c r="D315" s="58"/>
       <c r="E315" s="58"/>
       <c r="F315" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G315" s="16" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H315" s="58"/>
       <c r="I315" s="58"/>
@@ -12082,10 +12085,10 @@
       <c r="D316" s="59"/>
       <c r="E316" s="59"/>
       <c r="F316" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G316" s="16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H316" s="59"/>
       <c r="I316" s="59"/>
@@ -12134,7 +12137,7 @@
     <row r="318" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="51"/>
       <c r="B318" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C318" s="52"/>
       <c r="D318" s="18" t="s">
@@ -12144,10 +12147,10 @@
         <v>129</v>
       </c>
       <c r="F318" s="16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G318" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H318" s="52"/>
       <c r="I318" s="52"/>
@@ -12196,7 +12199,7 @@
     <row r="320" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="51"/>
       <c r="B320" s="16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C320" s="52"/>
       <c r="D320" s="18" t="s">
@@ -12206,10 +12209,10 @@
         <v>129</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G320" s="16" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H320" s="52"/>
       <c r="I320" s="52"/>
@@ -12258,7 +12261,7 @@
     <row r="322" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="51"/>
       <c r="B322" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C322" s="52"/>
       <c r="D322" s="18" t="s">
@@ -12268,10 +12271,10 @@
         <v>129</v>
       </c>
       <c r="F322" s="16" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G322" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H322" s="52"/>
       <c r="I322" s="52"/>
@@ -12320,7 +12323,7 @@
     <row r="324" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="51"/>
       <c r="B324" s="16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C324" s="52"/>
       <c r="D324" s="18" t="s">
@@ -12330,10 +12333,10 @@
         <v>129</v>
       </c>
       <c r="F324" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G324" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H324" s="52"/>
       <c r="I324" s="52"/>
@@ -12382,7 +12385,7 @@
     <row r="326" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="51"/>
       <c r="B326" s="24" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C326" s="52"/>
       <c r="D326" s="18" t="s">
@@ -12392,10 +12395,10 @@
         <v>129</v>
       </c>
       <c r="F326" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G326" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H326" s="52"/>
       <c r="I326" s="52"/>
@@ -12444,7 +12447,7 @@
     <row r="328" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="51"/>
       <c r="B328" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C328" s="52"/>
       <c r="D328" s="18" t="s">
@@ -12454,10 +12457,10 @@
         <v>129</v>
       </c>
       <c r="F328" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G328" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H328" s="52"/>
       <c r="I328" s="52"/>
@@ -12506,7 +12509,7 @@
     <row r="330" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="51"/>
       <c r="B330" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C330" s="52"/>
       <c r="D330" s="18" t="s">
@@ -12516,10 +12519,10 @@
         <v>129</v>
       </c>
       <c r="F330" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G330" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H330" s="52"/>
       <c r="I330" s="52"/>
@@ -12568,7 +12571,7 @@
     <row r="332" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="51"/>
       <c r="B332" s="16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C332" s="52"/>
       <c r="D332" s="18" t="s">
@@ -12578,10 +12581,10 @@
         <v>129</v>
       </c>
       <c r="F332" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G332" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H332" s="52"/>
       <c r="I332" s="52"/>
@@ -12629,20 +12632,20 @@
     </row>
     <row r="334" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="63" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="B334" s="64" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C334" s="65"/>
       <c r="D334" s="66" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E334" s="65" t="s">
         <v>129</v>
       </c>
       <c r="F334" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G334" s="16" t="s">
         <v>126</v>
@@ -12674,10 +12677,10 @@
       <c r="D335" s="58"/>
       <c r="E335" s="58"/>
       <c r="F335" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G335" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H335" s="58"/>
       <c r="I335" s="58"/>
@@ -12704,10 +12707,10 @@
       <c r="D336" s="59"/>
       <c r="E336" s="59"/>
       <c r="F336" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G336" s="23" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H336" s="59"/>
       <c r="I336" s="59"/>
@@ -18761,15 +18764,9 @@
     </row>
   </sheetData>
   <mergeCells count="508">
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -18781,6 +18778,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="A2:H2"/>
@@ -18790,17 +18795,6 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="H3:H6"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
@@ -18816,6 +18810,15 @@
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="A25:H25"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="J22:J24"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="H42:H44"/>
     <mergeCell ref="A45:H45"/>
@@ -18975,6 +18978,7 @@
     <mergeCell ref="D222:D230"/>
     <mergeCell ref="E222:E230"/>
     <mergeCell ref="A188:A194"/>
+    <mergeCell ref="B188:B194"/>
     <mergeCell ref="A231:H231"/>
     <mergeCell ref="A232:A235"/>
     <mergeCell ref="B232:B235"/>
@@ -19193,7 +19197,6 @@
     <mergeCell ref="C163:C167"/>
     <mergeCell ref="D163:D167"/>
     <mergeCell ref="E163:E167"/>
-    <mergeCell ref="B188:B194"/>
     <mergeCell ref="C188:C194"/>
     <mergeCell ref="D188:D194"/>
     <mergeCell ref="E188:E194"/>
